--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaaNIK\PycharmProjects\acom_lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30736F7-DCFC-497B-B1A0-DB87EFE5BA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E122AA-C04C-4ADF-ACCF-F78720B9A61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10725" yWindow="3030" windowWidth="21630" windowHeight="15795" firstSheet="1" activeTab="1" xr2:uid="{3AA32AE4-2984-4FA8-9974-1F38D5FA083E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Понедельник</t>
   </si>
@@ -664,9 +664,6 @@
     <t>Значение точности</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество совпавших символов </t>
-  </si>
-  <si>
     <t>str</t>
   </si>
   <si>
@@ -683,6 +680,15 @@
   </si>
   <si>
     <t>dataset</t>
+  </si>
+  <si>
+    <t>Количество совпавших символов на метку</t>
+  </si>
+  <si>
+    <t>1.3291</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1774,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1993,76 +1999,340 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2086,47 +2356,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2140,18 +2383,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2170,248 +2401,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3029,14 +3038,14 @@
       <c r="C1" s="9"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="153"/>
     </row>
     <row r="2" spans="1:11" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -3044,14 +3053,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156"/>
     </row>
     <row r="3" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -3059,14 +3068,14 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="148" t="s">
+      <c r="F3" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="150"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="156"/>
     </row>
     <row r="4" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -3082,70 +3091,70 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="168" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="167"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
     </row>
     <row r="6" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="160" t="s">
+      <c r="B6" s="161"/>
+      <c r="C6" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="165" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="167"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="169" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="175" t="s">
+      <c r="D7" s="176"/>
+      <c r="E7" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="163" t="s">
+      <c r="G7" s="170"/>
+      <c r="H7" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="164"/>
-      <c r="J7" s="163" t="s">
+      <c r="I7" s="170"/>
+      <c r="J7" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="164"/>
+      <c r="K7" s="170"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="176"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="182"/>
       <c r="F8" s="60"/>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
@@ -3154,10 +3163,10 @@
       <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="31" t="s">
         <v>12</v>
       </c>
@@ -3169,168 +3178,168 @@
       <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="139">
+      <c r="B10" s="143"/>
+      <c r="C10" s="146">
         <v>4</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="150" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="73"/>
       <c r="G10" s="54"/>
       <c r="H10" s="73"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
     </row>
     <row r="11" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="178"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="89">
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="88">
         <v>5</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="78" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="137"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="111" t="s">
+      <c r="A13" s="144"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="107"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="86"/>
     </row>
     <row r="14" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="137"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="89">
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="88">
         <v>6</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="78" t="s">
+      <c r="D14" s="186"/>
+      <c r="E14" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="113" t="s">
+      <c r="G14" s="78"/>
+      <c r="H14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="113" t="s">
+      <c r="I14" s="78"/>
+      <c r="J14" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="120"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="137"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="118"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="212">
+      <c r="A16" s="144"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="103">
         <v>7</v>
       </c>
-      <c r="D16" s="213"/>
-      <c r="E16" s="208" t="s">
+      <c r="D16" s="104"/>
+      <c r="E16" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="113" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="113" t="s">
+      <c r="I16" s="78"/>
+      <c r="J16" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="119"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="117"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="96">
+      <c r="A18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="95">
         <v>8</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="201" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="128"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="202"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="45"/>
       <c r="G19" s="47"/>
       <c r="H19" s="45"/>
@@ -3352,144 +3361,144 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="89">
+      <c r="B21" s="124"/>
+      <c r="C21" s="88">
         <v>5</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="78" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="125" t="s">
+      <c r="F21" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="128"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="186"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="111" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="107"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="86"/>
     </row>
     <row r="23" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="186"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="89">
+      <c r="A23" s="111"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="88">
         <v>6</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="78" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="113" t="s">
+      <c r="F23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="120"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="78"/>
     </row>
     <row r="24" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="186"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="186"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="96">
+      <c r="A25" s="111"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="95">
         <v>7</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="208" t="s">
+      <c r="D25" s="96"/>
+      <c r="E25" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="125" t="s">
+      <c r="F25" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="128"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="113" t="s">
+      <c r="G25" s="84"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="120"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:11" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="186"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="111" t="s">
+      <c r="A26" s="111"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="111" t="s">
+      <c r="G26" s="86"/>
+      <c r="H26" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="107"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="118"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
     </row>
     <row r="27" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="96">
+      <c r="A27" s="111"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="95">
         <v>8</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="201" t="s">
+      <c r="D27" s="96"/>
+      <c r="E27" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="125"/>
-      <c r="G27" s="128"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
-      <c r="J27" s="125" t="s">
+      <c r="J27" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="128"/>
+      <c r="K27" s="84"/>
     </row>
     <row r="28" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="194"/>
-      <c r="B28" s="200"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="111" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="107"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58"/>
@@ -3505,32 +3514,32 @@
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="84">
+      <c r="B30" s="116"/>
+      <c r="C30" s="135">
         <v>4</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="196" t="s">
+      <c r="D30" s="89"/>
+      <c r="E30" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="125" t="s">
+      <c r="F30" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
-      <c r="K30" s="128"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="84"/>
     </row>
     <row r="31" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="186"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="197"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="123"/>
       <c r="F31" s="69"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
@@ -3539,128 +3548,128 @@
       <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="84">
+      <c r="A32" s="111"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="135">
         <v>5</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="87" t="s">
+      <c r="D32" s="89"/>
+      <c r="E32" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="115"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="199"/>
     </row>
     <row r="33" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="118"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="80"/>
     </row>
     <row r="34" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="186"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="205">
+      <c r="A34" s="111"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="132">
         <v>6</v>
       </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="87" t="s">
+      <c r="D34" s="133"/>
+      <c r="E34" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="125" t="s">
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="127"/>
+      <c r="K34" s="102"/>
     </row>
     <row r="35" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="111" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="107"/>
+      <c r="K35" s="86"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="186"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="96">
+      <c r="A36" s="111"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="95">
         <v>7</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="87" t="s">
+      <c r="D36" s="96"/>
+      <c r="E36" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="125" t="s">
+      <c r="F36" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="121" t="s">
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="122"/>
+      <c r="K36" s="201"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="186"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="111" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="111" t="s">
+      <c r="G37" s="86"/>
+      <c r="H37" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="107"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="124"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="203"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
       <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="192"/>
-      <c r="B38" s="193"/>
-      <c r="C38" s="96">
+      <c r="A38" s="118"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="95">
         <v>8</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="201" t="s">
+      <c r="D38" s="96"/>
+      <c r="E38" s="99" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="72"/>
@@ -3674,19 +3683,19 @@
       <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="194"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="111" t="s">
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="107"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
@@ -3702,15 +3711,15 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="89">
+      <c r="B41" s="112"/>
+      <c r="C41" s="88">
         <v>2</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="78" t="s">
+      <c r="D41" s="89"/>
+      <c r="E41" s="92" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="37"/>
@@ -3721,11 +3730,11 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="186"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="79"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="29"/>
       <c r="G42" s="43"/>
       <c r="H42" s="40"/>
@@ -3734,136 +3743,136 @@
       <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="186"/>
-      <c r="B43" s="187"/>
-      <c r="C43" s="89">
+      <c r="A43" s="111"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="88">
         <v>3</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="78" t="s">
+      <c r="D43" s="89"/>
+      <c r="E43" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="113"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="113" t="s">
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="120"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="128"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="186"/>
-      <c r="B44" s="187"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="111" t="s">
+      <c r="A44" s="111"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="107"/>
+      <c r="K44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="186"/>
-      <c r="B45" s="187"/>
-      <c r="C45" s="89">
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="88">
         <v>4</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="196" t="s">
+      <c r="D45" s="89"/>
+      <c r="E45" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="125" t="s">
+      <c r="F45" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="128"/>
-      <c r="H45" s="113" t="s">
+      <c r="G45" s="84"/>
+      <c r="H45" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="119"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="128"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="84"/>
     </row>
     <row r="46" spans="1:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="186"/>
-      <c r="B46" s="187"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="197"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="123"/>
       <c r="F46" s="69"/>
       <c r="G46" s="71"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="111" t="s">
+      <c r="H46" s="79"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="107"/>
+      <c r="K46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
-      <c r="C47" s="92">
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="211">
         <v>5</v>
       </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="87" t="s">
+      <c r="D47" s="212"/>
+      <c r="E47" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="120"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="120"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="48"/>
       <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="186"/>
-      <c r="B48" s="187"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="118"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="213"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="80"/>
       <c r="J48" s="49"/>
       <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="186"/>
-      <c r="B49" s="187"/>
-      <c r="C49" s="92">
+      <c r="A49" s="111"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="211">
         <v>6</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="87" t="s">
+      <c r="D49" s="212"/>
+      <c r="E49" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="113" t="s">
+      <c r="F49" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="119"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="119"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="48"/>
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="186"/>
-      <c r="B50" s="187"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="213"/>
+      <c r="D50" s="214"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="41"/>
       <c r="K50" s="42"/>
     </row>
@@ -3881,38 +3890,38 @@
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="182">
+      <c r="B52" s="129"/>
+      <c r="C52" s="90">
         <v>1</v>
       </c>
-      <c r="D52" s="204"/>
-      <c r="E52" s="78" t="s">
+      <c r="D52" s="91"/>
+      <c r="E52" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="129" t="s">
+      <c r="F52" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="131"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
+      <c r="I52" s="205"/>
+      <c r="J52" s="205"/>
+      <c r="K52" s="206"/>
     </row>
     <row r="53" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="187"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="134"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="208"/>
+      <c r="H53" s="208"/>
+      <c r="I53" s="208"/>
+      <c r="J53" s="208"/>
+      <c r="K53" s="209"/>
     </row>
     <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
@@ -3928,138 +3937,138 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="184" t="s">
+      <c r="A55" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="185"/>
-      <c r="C55" s="80">
+      <c r="B55" s="110"/>
+      <c r="C55" s="141">
         <v>1</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="78" t="s">
+      <c r="D55" s="142"/>
+      <c r="E55" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="104" t="s">
+      <c r="F55" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="105"/>
+      <c r="G55" s="193"/>
       <c r="H55" s="55"/>
       <c r="I55" s="56"/>
       <c r="J55" s="55"/>
       <c r="K55" s="56"/>
     </row>
     <row r="56" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
-      <c r="B56" s="187"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="107"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="74"/>
       <c r="I56" s="75"/>
       <c r="J56" s="74"/>
       <c r="K56" s="75"/>
     </row>
     <row r="57" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="186"/>
-      <c r="B57" s="187"/>
-      <c r="C57" s="80">
+      <c r="A57" s="111"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="141">
         <v>2</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="78" t="s">
+      <c r="D57" s="142"/>
+      <c r="E57" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="105"/>
+      <c r="G57" s="195"/>
+      <c r="H57" s="195"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
+      <c r="K57" s="193"/>
     </row>
     <row r="58" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
-      <c r="B58" s="187"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="107"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="86"/>
     </row>
     <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="186"/>
-      <c r="B59" s="187"/>
-      <c r="C59" s="80">
+      <c r="A59" s="111"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="141">
         <v>3</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="78" t="s">
+      <c r="D59" s="142"/>
+      <c r="E59" s="92" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="55"/>
       <c r="G59" s="57"/>
-      <c r="H59" s="104" t="s">
+      <c r="H59" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="105"/>
-      <c r="J59" s="104" t="s">
+      <c r="I59" s="193"/>
+      <c r="J59" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="105"/>
+      <c r="K59" s="193"/>
     </row>
     <row r="60" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
-      <c r="B60" s="187"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="79"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="52"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="107"/>
+      <c r="H60" s="194"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="86"/>
     </row>
     <row r="61" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
-      <c r="B61" s="187"/>
-      <c r="C61" s="209">
+      <c r="A61" s="111"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="137">
         <v>4</v>
       </c>
-      <c r="D61" s="210"/>
-      <c r="E61" s="196" t="s">
+      <c r="D61" s="138"/>
+      <c r="E61" s="122" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="43"/>
-      <c r="H61" s="104" t="s">
+      <c r="H61" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="110"/>
-      <c r="J61" s="104" t="s">
+      <c r="I61" s="196"/>
+      <c r="J61" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="105"/>
+      <c r="K61" s="193"/>
     </row>
     <row r="62" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="188"/>
-      <c r="B62" s="189"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="197"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="123"/>
       <c r="F62" s="52"/>
       <c r="G62" s="53"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="106"/>
-      <c r="K62" s="107"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="194"/>
+      <c r="K62" s="86"/>
     </row>
     <row r="63" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A63" s="2"/>
@@ -4067,14 +4076,14 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="102" t="s">
+      <c r="F63" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
+      <c r="G63" s="191"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
+      <c r="J63" s="191"/>
+      <c r="K63" s="191"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
     </row>
@@ -4084,14 +4093,14 @@
       <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="100" t="s">
+      <c r="F64" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
+      <c r="G64" s="189"/>
+      <c r="H64" s="189"/>
+      <c r="I64" s="189"/>
+      <c r="J64" s="189"/>
+      <c r="K64" s="189"/>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
     </row>
@@ -4116,37 +4125,71 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="F47:G48"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K24"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="F32:K33"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F52:K53"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A10:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="F14:G15"/>
     <mergeCell ref="A55:B62"/>
     <mergeCell ref="A30:B39"/>
     <mergeCell ref="E45:E46"/>
@@ -4171,71 +4214,37 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="C59:D60"/>
-    <mergeCell ref="A10:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="F32:K33"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F52:K53"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K24"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="A63:F64 F52 C51:D62 I54:I60 J54:K62 F54:G62 H54:H61 F54:K54 C38:E38 C49 A40:B62 D40:D46 C40:C47 F39:K39 H37:I37 F36:G51 H38:K51 A29:B37 C27:E27 H29:I33 C29:E36 F28:K28 J27:K35 F20:G33 H20:K28 C16:G17 A8:B27 A5:F6 A7:C7 E7 E9 C10:K11 C21:K22 F7:K19 C12:E25 C30:K31 E23:E28 E32:E62">
     <cfRule type="containsText" dxfId="1" priority="243" operator="containsText" text="кз2">
@@ -4253,60 +4262,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262E594-E8D8-4452-A751-8196796C7E62}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="B2" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="C2" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="D2" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="D2">
+      <c r="B3" s="216" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="215">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="215" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="215" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="215" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="215"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="215"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="215"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="215"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="215"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="215"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="215"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="215"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="215"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="215"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="215"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="215"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="215"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="215"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="215"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaaNIK\PycharmProjects\acom_lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E122AA-C04C-4ADF-ACCF-F78720B9A61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7DA3A-EC9E-4EE2-9734-2C0C4CA936C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="3030" windowWidth="21630" windowHeight="15795" firstSheet="1" activeTab="1" xr2:uid="{3AA32AE4-2984-4FA8-9974-1F38D5FA083E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{3AA32AE4-2984-4FA8-9974-1F38D5FA083E}"/>
   </bookViews>
   <sheets>
     <sheet name="4 курс 09.03.03" sheetId="5" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Понедельник</t>
   </si>
@@ -690,6 +690,18 @@
   <si>
     <t>2</t>
   </si>
+  <si>
+    <t>Наличие постобработки</t>
+  </si>
+  <si>
+    <t>1.3797</t>
+  </si>
+  <si>
+    <t>Помимо спец символов удалил цифры</t>
+  </si>
+  <si>
+    <t>1.0316</t>
+  </si>
 </sst>
 </file>
 
@@ -698,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ #,##0.00&quot;р. &quot;;\-#,##0.00&quot;р. &quot;;&quot; -&quot;#&quot;р. &quot;;@\ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -879,8 +891,24 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,6 +945,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="75">
     <border>
@@ -1755,7 +1793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,8 +1811,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,84 +2042,414 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2092,343 +2462,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Денежный_бакалавриат Расписание 1, курс(11.09.2006г.)" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_бакалавриат Расписание 1, курс(11.09.2006г.)" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный_от Сахарова_ЭКОНОМ ФАК 1 сем 09-101" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Плохой" xfId="6" builtinId="27"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
+    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3038,14 +3086,14 @@
       <c r="C1" s="9"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="153"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
     </row>
     <row r="2" spans="1:11" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -3053,14 +3101,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
     </row>
     <row r="3" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -3068,14 +3116,14 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="156"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="151"/>
     </row>
     <row r="4" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -3091,70 +3139,70 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="174" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168"/>
     </row>
     <row r="6" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="166" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="171" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
     </row>
     <row r="7" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="175" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="181" t="s">
+      <c r="D7" s="171"/>
+      <c r="E7" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="169" t="s">
+      <c r="F7" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="170"/>
-      <c r="H7" s="169" t="s">
+      <c r="G7" s="165"/>
+      <c r="H7" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="170"/>
-      <c r="J7" s="169" t="s">
+      <c r="I7" s="165"/>
+      <c r="J7" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="170"/>
+      <c r="K7" s="165"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="182"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="177"/>
       <c r="F8" s="60"/>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
@@ -3163,10 +3211,10 @@
       <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="31" t="s">
         <v>12</v>
       </c>
@@ -3178,168 +3226,168 @@
       <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="146">
+      <c r="B10" s="137"/>
+      <c r="C10" s="140">
         <v>4</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="144" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="73"/>
       <c r="G10" s="54"/>
       <c r="H10" s="73"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
     </row>
     <row r="11" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="184"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="179"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="88">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="90">
         <v>5</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="181"/>
+      <c r="E12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
     </row>
     <row r="13" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="85" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="86"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="88">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="90">
         <v>6</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="77" t="s">
+      <c r="G14" s="121"/>
+      <c r="H14" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="77" t="s">
+      <c r="I14" s="121"/>
+      <c r="J14" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="121"/>
     </row>
     <row r="15" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="119"/>
     </row>
     <row r="16" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="103">
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="213">
         <v>7</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="107" t="s">
+      <c r="D16" s="214"/>
+      <c r="E16" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="77" t="s">
+      <c r="G16" s="121"/>
+      <c r="H16" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="77" t="s">
+      <c r="I16" s="121"/>
+      <c r="J16" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="81"/>
+      <c r="K16" s="120"/>
     </row>
     <row r="17" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="82"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
     </row>
     <row r="18" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="95">
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="97">
         <v>8</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="99" t="s">
+      <c r="D18" s="98"/>
+      <c r="E18" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="84"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="129"/>
     </row>
     <row r="19" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="100"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="203"/>
       <c r="F19" s="45"/>
       <c r="G19" s="47"/>
       <c r="H19" s="45"/>
@@ -3361,144 +3409,144 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="88">
+      <c r="B21" s="199"/>
+      <c r="C21" s="90">
         <v>5</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="92" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="84"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="129"/>
     </row>
     <row r="22" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="85" t="s">
+      <c r="A22" s="187"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="86"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="88">
+      <c r="A23" s="187"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="90">
         <v>6</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="92" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="78"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
     </row>
     <row r="25" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="95">
+      <c r="A25" s="187"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="97">
         <v>7</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="107" t="s">
+      <c r="D25" s="98"/>
+      <c r="E25" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="77" t="s">
+      <c r="G25" s="129"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="121"/>
     </row>
     <row r="26" spans="1:11" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="85" t="s">
+      <c r="A26" s="187"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="85" t="s">
+      <c r="G26" s="108"/>
+      <c r="H26" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="119"/>
     </row>
     <row r="27" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="95">
+      <c r="A27" s="187"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="97">
         <v>8</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="99" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="84"/>
+      <c r="K27" s="129"/>
     </row>
     <row r="28" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="85" t="s">
+      <c r="A28" s="195"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="86"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="108"/>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58"/>
@@ -3514,32 +3562,32 @@
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="135">
+      <c r="B30" s="191"/>
+      <c r="C30" s="85">
         <v>4</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="122" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="84"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="129"/>
     </row>
     <row r="31" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="111"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="123"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="198"/>
       <c r="F31" s="69"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
@@ -3548,128 +3596,128 @@
       <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="135">
+      <c r="A32" s="187"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="85">
         <v>5</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="130" t="s">
+      <c r="D32" s="86"/>
+      <c r="E32" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="199"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="116"/>
     </row>
     <row r="33" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="80"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="119"/>
     </row>
     <row r="34" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="132">
+      <c r="A34" s="187"/>
+      <c r="B34" s="192"/>
+      <c r="C34" s="206">
         <v>6</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="130" t="s">
+      <c r="D34" s="207"/>
+      <c r="E34" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="83" t="s">
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="102"/>
+      <c r="K34" s="128"/>
     </row>
     <row r="35" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="85" t="s">
+      <c r="A35" s="187"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="86"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="95">
+      <c r="A36" s="187"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="97">
         <v>7</v>
       </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="130" t="s">
+      <c r="D36" s="98"/>
+      <c r="E36" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="200" t="s">
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="201"/>
+      <c r="K36" s="123"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="85" t="s">
+      <c r="A37" s="187"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="86"/>
-      <c r="H37" s="85" t="s">
+      <c r="G37" s="108"/>
+      <c r="H37" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="86"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="203"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="125"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
       <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="118"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="95">
+      <c r="A38" s="193"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="97">
         <v>8</v>
       </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="99" t="s">
+      <c r="D38" s="98"/>
+      <c r="E38" s="202" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="72"/>
@@ -3683,19 +3731,19 @@
       <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="120"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="85" t="s">
+      <c r="A39" s="195"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="86"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="108"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
@@ -3711,15 +3759,15 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="88">
+      <c r="B41" s="188"/>
+      <c r="C41" s="90">
         <v>2</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="92" t="s">
+      <c r="D41" s="86"/>
+      <c r="E41" s="79" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="37"/>
@@ -3730,11 +3778,11 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="93"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="29"/>
       <c r="G42" s="43"/>
       <c r="H42" s="40"/>
@@ -3743,136 +3791,136 @@
       <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="88">
+      <c r="A43" s="187"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="90">
         <v>3</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="92" t="s">
+      <c r="D43" s="86"/>
+      <c r="E43" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="77" t="s">
+      <c r="F43" s="114"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="84"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="129"/>
     </row>
     <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="85" t="s">
+      <c r="A44" s="187"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="86"/>
+      <c r="K44" s="108"/>
     </row>
     <row r="45" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="88">
+      <c r="A45" s="187"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="90">
         <v>4</v>
       </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="122" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="84"/>
-      <c r="H45" s="77" t="s">
+      <c r="G45" s="129"/>
+      <c r="H45" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="81"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="84"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="129"/>
     </row>
     <row r="46" spans="1:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="123"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="198"/>
       <c r="F46" s="69"/>
       <c r="G46" s="71"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="85" t="s">
+      <c r="H46" s="117"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="86"/>
+      <c r="K46" s="108"/>
     </row>
     <row r="47" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="211">
+      <c r="A47" s="187"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="93">
         <v>5</v>
       </c>
-      <c r="D47" s="212"/>
-      <c r="E47" s="130" t="s">
+      <c r="D47" s="94"/>
+      <c r="E47" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="78"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="78"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="121"/>
       <c r="J47" s="48"/>
       <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="213"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="80"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="119"/>
       <c r="J48" s="49"/>
       <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="211">
+      <c r="A49" s="187"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="93">
         <v>6</v>
       </c>
-      <c r="D49" s="212"/>
-      <c r="E49" s="130" t="s">
+      <c r="D49" s="94"/>
+      <c r="E49" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="81"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="81"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="120"/>
       <c r="J49" s="48"/>
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="213"/>
-      <c r="D50" s="214"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="82"/>
+      <c r="A50" s="187"/>
+      <c r="B50" s="188"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="118"/>
       <c r="J50" s="41"/>
       <c r="K50" s="42"/>
     </row>
@@ -3890,38 +3938,38 @@
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="90">
+      <c r="B52" s="204"/>
+      <c r="C52" s="183">
         <v>1</v>
       </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92" t="s">
+      <c r="D52" s="205"/>
+      <c r="E52" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="204" t="s">
+      <c r="F52" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="205"/>
-      <c r="K52" s="206"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="132"/>
     </row>
     <row r="53" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="208"/>
-      <c r="I53" s="208"/>
-      <c r="J53" s="208"/>
-      <c r="K53" s="209"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="135"/>
     </row>
     <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
@@ -3937,138 +3985,138 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="109" t="s">
+      <c r="A55" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="110"/>
-      <c r="C55" s="141">
+      <c r="B55" s="186"/>
+      <c r="C55" s="81">
         <v>1</v>
       </c>
-      <c r="D55" s="142"/>
-      <c r="E55" s="92" t="s">
+      <c r="D55" s="82"/>
+      <c r="E55" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="192" t="s">
+      <c r="F55" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="193"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="55"/>
       <c r="I55" s="56"/>
       <c r="J55" s="55"/>
       <c r="K55" s="56"/>
     </row>
     <row r="56" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="86"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="108"/>
       <c r="H56" s="74"/>
       <c r="I56" s="75"/>
       <c r="J56" s="74"/>
       <c r="K56" s="75"/>
     </row>
     <row r="57" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="111"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="141">
+      <c r="A57" s="187"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="81">
         <v>2</v>
       </c>
-      <c r="D57" s="142"/>
-      <c r="E57" s="92" t="s">
+      <c r="D57" s="82"/>
+      <c r="E57" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="192" t="s">
+      <c r="F57" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="195"/>
-      <c r="J57" s="195"/>
-      <c r="K57" s="193"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="86"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="108"/>
     </row>
     <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="111"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="141">
+      <c r="A59" s="187"/>
+      <c r="B59" s="188"/>
+      <c r="C59" s="81">
         <v>3</v>
       </c>
-      <c r="D59" s="142"/>
-      <c r="E59" s="92" t="s">
+      <c r="D59" s="82"/>
+      <c r="E59" s="79" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="55"/>
       <c r="G59" s="57"/>
-      <c r="H59" s="192" t="s">
+      <c r="H59" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="193"/>
-      <c r="J59" s="192" t="s">
+      <c r="I59" s="106"/>
+      <c r="J59" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="193"/>
+      <c r="K59" s="106"/>
     </row>
     <row r="60" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="111"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="93"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="52"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="86"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="108"/>
     </row>
     <row r="61" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="111"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="137">
+      <c r="A61" s="187"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="210">
         <v>4</v>
       </c>
-      <c r="D61" s="138"/>
-      <c r="E61" s="122" t="s">
+      <c r="D61" s="211"/>
+      <c r="E61" s="197" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="43"/>
-      <c r="H61" s="192" t="s">
+      <c r="H61" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="196"/>
-      <c r="J61" s="192" t="s">
+      <c r="I61" s="111"/>
+      <c r="J61" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="193"/>
+      <c r="K61" s="106"/>
     </row>
     <row r="62" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="123"/>
+      <c r="A62" s="189"/>
+      <c r="B62" s="190"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="198"/>
       <c r="F62" s="52"/>
       <c r="G62" s="53"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="197"/>
-      <c r="J62" s="194"/>
-      <c r="K62" s="86"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="108"/>
     </row>
     <row r="63" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A63" s="2"/>
@@ -4076,14 +4124,14 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="190" t="s">
+      <c r="F63" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="191"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-      <c r="J63" s="191"/>
-      <c r="K63" s="191"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
     </row>
@@ -4093,14 +4141,14 @@
       <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="188" t="s">
+      <c r="F64" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="189"/>
-      <c r="H64" s="189"/>
-      <c r="I64" s="189"/>
-      <c r="J64" s="189"/>
-      <c r="K64" s="189"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
     </row>
@@ -4125,23 +4173,85 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K24"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A55:B62"/>
+    <mergeCell ref="A30:B39"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A21:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A41:B50"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="A10:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="F14:G15"/>
     <mergeCell ref="F64:K64"/>
     <mergeCell ref="F63:K63"/>
     <mergeCell ref="F55:G56"/>
@@ -4166,85 +4276,23 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F52:K53"/>
     <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A10:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="A55:B62"/>
-    <mergeCell ref="A30:B39"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A21:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A41:B50"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K24"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="F47:G48"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="C38:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="A63:F64 F52 C51:D62 I54:I60 J54:K62 F54:G62 H54:H61 F54:K54 C38:E38 C49 A40:B62 D40:D46 C40:C47 F39:K39 H37:I37 F36:G51 H38:K51 A29:B37 C27:E27 H29:I33 C29:E36 F28:K28 J27:K35 F20:G33 H20:K28 C16:G17 A8:B27 A5:F6 A7:C7 E7 E9 C10:K11 C21:K22 F7:K19 C12:E25 C30:K31 E23:E28 E32:E62">
     <cfRule type="containsText" dxfId="1" priority="243" operator="containsText" text="кз2">
@@ -4262,10 +4310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262E594-E8D8-4452-A751-8196796C7E62}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4273,9 +4321,12 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
@@ -4288,186 +4339,211 @@
       <c r="D1" s="76" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="216" t="s">
+      <c r="E1" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="215">
+      <c r="D2" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="216" t="s">
+      <c r="E2" s="217"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="215">
+      <c r="D3" s="77">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="215" t="s">
+      <c r="E3" s="217"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="215" t="s">
+      <c r="D4" s="77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="215"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="215"/>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="215"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="215"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="215"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="215"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="215"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="215"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="215"/>
-      <c r="B13" s="215"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="215"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="215"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="215"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
+      <c r="E4" s="217"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="218"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="218"/>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="215"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="215"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="215"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="215"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="215"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaaNIK\PycharmProjects\acom_lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7DA3A-EC9E-4EE2-9734-2C0C4CA936C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EF786D-800B-4090-82D0-F4E25D21D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{3AA32AE4-2984-4FA8-9974-1F38D5FA083E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>Понедельник</t>
   </si>
@@ -676,31 +676,61 @@
     <t>augment</t>
   </si>
   <si>
-    <t>0.0506</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
     <t>Количество совпавших символов на метку</t>
   </si>
   <si>
-    <t>1.3291</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>Наличие постобработки</t>
   </si>
   <si>
-    <t>1.3797</t>
-  </si>
-  <si>
     <t>Помимо спец символов удалил цифры</t>
   </si>
   <si>
-    <t>1.0316</t>
+    <t>easyOCR</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0443</t>
+  </si>
+  <si>
+    <t>0.0324</t>
+  </si>
+  <si>
+    <t>0.0252</t>
+  </si>
+  <si>
+    <t>0.0337</t>
+  </si>
+  <si>
+    <t>0.6962</t>
+  </si>
+  <si>
+    <t>0.3636</t>
+  </si>
+  <si>
+    <t>0.1707</t>
+  </si>
+  <si>
+    <t>0.3654</t>
+  </si>
+  <si>
+    <t>0.7848</t>
+  </si>
+  <si>
+    <t>0.5455</t>
+  </si>
+  <si>
+    <t>0.3215</t>
+  </si>
+  <si>
+    <t>0.5602</t>
   </si>
 </sst>
 </file>
@@ -2048,70 +2078,343 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2135,47 +2438,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2189,18 +2465,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2219,254 +2483,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3086,14 +3116,14 @@
       <c r="C1" s="9"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="157"/>
     </row>
     <row r="2" spans="1:11" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -3101,14 +3131,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -3116,14 +3146,14 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -3139,70 +3169,70 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="169" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="177"/>
     </row>
     <row r="6" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="161" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="166" t="s">
+      <c r="D6" s="171"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="177"/>
     </row>
     <row r="7" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="170" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="176" t="s">
+      <c r="D7" s="180"/>
+      <c r="E7" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="164" t="s">
+      <c r="G7" s="174"/>
+      <c r="H7" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="164" t="s">
+      <c r="I7" s="174"/>
+      <c r="J7" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="165"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="177"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="60"/>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
@@ -3211,10 +3241,10 @@
       <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
       <c r="E9" s="31" t="s">
         <v>12</v>
       </c>
@@ -3226,168 +3256,168 @@
       <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" s="140">
+      <c r="B10" s="147"/>
+      <c r="C10" s="150">
         <v>4</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="144" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="154" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="73"/>
       <c r="G10" s="54"/>
       <c r="H10" s="73"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="188"/>
     </row>
     <row r="11" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="179"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="188"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="138"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="90">
+      <c r="A12" s="148"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="92">
         <v>5</v>
       </c>
-      <c r="D12" s="181"/>
-      <c r="E12" s="79" t="s">
+      <c r="D12" s="190"/>
+      <c r="E12" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
     </row>
     <row r="13" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="112" t="s">
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="108"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="90">
+      <c r="A14" s="148"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="92">
         <v>6</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="190"/>
+      <c r="E14" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="114" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="121"/>
-      <c r="J14" s="114" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="121"/>
+      <c r="K14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="138"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="119"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="138"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="213">
+      <c r="A16" s="148"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="107">
         <v>7</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="209" t="s">
+      <c r="D16" s="108"/>
+      <c r="E16" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="121"/>
-      <c r="H16" s="114" t="s">
+      <c r="G16" s="82"/>
+      <c r="H16" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="114" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="120"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="138"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="97">
+      <c r="A18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="99">
         <v>8</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="202" t="s">
+      <c r="D18" s="100"/>
+      <c r="E18" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="129"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="203"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="45"/>
       <c r="G19" s="47"/>
       <c r="H19" s="45"/>
@@ -3409,144 +3439,144 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="199"/>
-      <c r="C21" s="90">
+      <c r="B21" s="128"/>
+      <c r="C21" s="92">
         <v>5</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="93"/>
+      <c r="E21" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="129"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="88"/>
     </row>
     <row r="22" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="187"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="112" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="108"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="187"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="90">
+      <c r="A23" s="115"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="92">
         <v>6</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="79" t="s">
+      <c r="D23" s="93"/>
+      <c r="E23" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="82"/>
     </row>
     <row r="24" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="84"/>
     </row>
     <row r="25" spans="1:11" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="187"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="97">
+      <c r="A25" s="115"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="99">
         <v>7</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="209" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="114" t="s">
+      <c r="G25" s="88"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="121"/>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="1:11" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="187"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="112" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="112" t="s">
+      <c r="G26" s="90"/>
+      <c r="H26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="108"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="119"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
     </row>
     <row r="27" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="187"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="97">
+      <c r="A27" s="115"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="99">
         <v>8</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="202" t="s">
+      <c r="D27" s="100"/>
+      <c r="E27" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="129"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
-      <c r="J27" s="126" t="s">
+      <c r="J27" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="129"/>
+      <c r="K27" s="88"/>
     </row>
     <row r="28" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="112" t="s">
+      <c r="A28" s="124"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="108"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="90"/>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58"/>
@@ -3562,32 +3592,32 @@
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="85">
+      <c r="B30" s="120"/>
+      <c r="C30" s="139">
         <v>4</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="197" t="s">
+      <c r="D30" s="93"/>
+      <c r="E30" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="126" t="s">
+      <c r="F30" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="129"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="88"/>
     </row>
     <row r="31" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="187"/>
-      <c r="B31" s="192"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="198"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="127"/>
       <c r="F31" s="69"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
@@ -3596,128 +3626,128 @@
       <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="187"/>
-      <c r="B32" s="192"/>
-      <c r="C32" s="85">
+      <c r="A32" s="115"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="139">
         <v>5</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="88" t="s">
+      <c r="D32" s="93"/>
+      <c r="E32" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="116"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="203"/>
     </row>
     <row r="33" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="187"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="119"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="187"/>
-      <c r="B34" s="192"/>
-      <c r="C34" s="206">
+      <c r="A34" s="115"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="136">
         <v>6</v>
       </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="88" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="126" t="s">
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="128"/>
+      <c r="K34" s="106"/>
     </row>
     <row r="35" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="187"/>
-      <c r="B35" s="192"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="112" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="108"/>
+      <c r="K35" s="90"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="187"/>
-      <c r="B36" s="192"/>
-      <c r="C36" s="97">
+      <c r="A36" s="115"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="99">
         <v>7</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="88" t="s">
+      <c r="D36" s="100"/>
+      <c r="E36" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="126" t="s">
+      <c r="F36" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="122" t="s">
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="123"/>
+      <c r="K36" s="205"/>
       <c r="L36" s="44"/>
       <c r="M36" s="44"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="187"/>
-      <c r="B37" s="192"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="112" t="s">
+      <c r="A37" s="115"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="112" t="s">
+      <c r="G37" s="90"/>
+      <c r="H37" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="108"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="125"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="207"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
       <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="193"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="97">
+      <c r="A38" s="122"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="99">
         <v>8</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="202" t="s">
+      <c r="D38" s="100"/>
+      <c r="E38" s="103" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="72"/>
@@ -3731,19 +3761,19 @@
       <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
-      <c r="B39" s="196"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="112" t="s">
+      <c r="A39" s="124"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="108"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
@@ -3759,15 +3789,15 @@
       <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="90">
+      <c r="B41" s="116"/>
+      <c r="C41" s="92">
         <v>2</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="79" t="s">
+      <c r="D41" s="93"/>
+      <c r="E41" s="96" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="37"/>
@@ -3778,11 +3808,11 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="187"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="80"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="29"/>
       <c r="G42" s="43"/>
       <c r="H42" s="40"/>
@@ -3791,136 +3821,136 @@
       <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:14" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="187"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="90">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="92">
         <v>3</v>
       </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="79" t="s">
+      <c r="D43" s="93"/>
+      <c r="E43" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="114"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="114" t="s">
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="121"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="129"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="88"/>
     </row>
     <row r="44" spans="1:14" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="187"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="112" t="s">
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="90"/>
     </row>
     <row r="45" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="187"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="90">
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="92">
         <v>4</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="E45" s="197" t="s">
+      <c r="D45" s="93"/>
+      <c r="E45" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="126" t="s">
+      <c r="F45" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="129"/>
-      <c r="H45" s="114" t="s">
+      <c r="G45" s="88"/>
+      <c r="H45" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="120"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="129"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="88"/>
     </row>
     <row r="46" spans="1:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="187"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="198"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="127"/>
       <c r="F46" s="69"/>
       <c r="G46" s="71"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="112" t="s">
+      <c r="H46" s="83"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="108"/>
+      <c r="K46" s="90"/>
     </row>
     <row r="47" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="187"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="93">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="215">
         <v>5</v>
       </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="88" t="s">
+      <c r="D47" s="216"/>
+      <c r="E47" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="114" t="s">
+      <c r="F47" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="121"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="121"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="48"/>
       <c r="K47" s="50"/>
     </row>
     <row r="48" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="187"/>
-      <c r="B48" s="188"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="119"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="218"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="49"/>
       <c r="K48" s="51"/>
     </row>
     <row r="49" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="187"/>
-      <c r="B49" s="188"/>
-      <c r="C49" s="93">
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="215">
         <v>6</v>
       </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="88" t="s">
+      <c r="D49" s="216"/>
+      <c r="E49" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="120"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="120"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="85"/>
       <c r="J49" s="48"/>
       <c r="K49" s="50"/>
     </row>
     <row r="50" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="187"/>
-      <c r="B50" s="188"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="217"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="86"/>
       <c r="J50" s="41"/>
       <c r="K50" s="42"/>
     </row>
@@ -3938,38 +3968,38 @@
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="136" t="s">
+      <c r="A52" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="204"/>
-      <c r="C52" s="183">
+      <c r="B52" s="133"/>
+      <c r="C52" s="94">
         <v>1</v>
       </c>
-      <c r="D52" s="205"/>
-      <c r="E52" s="79" t="s">
+      <c r="D52" s="95"/>
+      <c r="E52" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="130" t="s">
+      <c r="F52" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="132"/>
+      <c r="G52" s="209"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="209"/>
+      <c r="K52" s="210"/>
     </row>
     <row r="53" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="187"/>
-      <c r="B53" s="188"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="135"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="212"/>
+      <c r="H53" s="212"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="212"/>
+      <c r="K53" s="213"/>
     </row>
     <row r="54" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
@@ -3985,138 +4015,138 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="185" t="s">
+      <c r="A55" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="186"/>
-      <c r="C55" s="81">
+      <c r="B55" s="114"/>
+      <c r="C55" s="145">
         <v>1</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="79" t="s">
+      <c r="D55" s="146"/>
+      <c r="E55" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="105" t="s">
+      <c r="F55" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="106"/>
+      <c r="G55" s="197"/>
       <c r="H55" s="55"/>
       <c r="I55" s="56"/>
       <c r="J55" s="55"/>
       <c r="K55" s="56"/>
     </row>
     <row r="56" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="187"/>
-      <c r="B56" s="188"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="108"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="74"/>
       <c r="I56" s="75"/>
       <c r="J56" s="74"/>
       <c r="K56" s="75"/>
     </row>
     <row r="57" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="187"/>
-      <c r="B57" s="188"/>
-      <c r="C57" s="81">
+      <c r="A57" s="115"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="145">
         <v>2</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="79" t="s">
+      <c r="D57" s="146"/>
+      <c r="E57" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="106"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
+      <c r="I57" s="199"/>
+      <c r="J57" s="199"/>
+      <c r="K57" s="197"/>
     </row>
     <row r="58" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="187"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="108"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="198"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="90"/>
     </row>
     <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="187"/>
-      <c r="B59" s="188"/>
-      <c r="C59" s="81">
+      <c r="A59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="145">
         <v>3</v>
       </c>
-      <c r="D59" s="82"/>
-      <c r="E59" s="79" t="s">
+      <c r="D59" s="146"/>
+      <c r="E59" s="96" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="55"/>
       <c r="G59" s="57"/>
-      <c r="H59" s="105" t="s">
+      <c r="H59" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="106"/>
-      <c r="J59" s="105" t="s">
+      <c r="I59" s="197"/>
+      <c r="J59" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="106"/>
+      <c r="K59" s="197"/>
     </row>
     <row r="60" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="187"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="80"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="52"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="108"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="198"/>
+      <c r="K60" s="90"/>
     </row>
     <row r="61" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="187"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="210">
+      <c r="A61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="141">
         <v>4</v>
       </c>
-      <c r="D61" s="211"/>
-      <c r="E61" s="197" t="s">
+      <c r="D61" s="142"/>
+      <c r="E61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="43"/>
-      <c r="H61" s="105" t="s">
+      <c r="H61" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="111"/>
-      <c r="J61" s="105" t="s">
+      <c r="I61" s="200"/>
+      <c r="J61" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="106"/>
+      <c r="K61" s="197"/>
     </row>
     <row r="62" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="189"/>
-      <c r="B62" s="190"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="198"/>
+      <c r="A62" s="117"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="127"/>
       <c r="F62" s="52"/>
       <c r="G62" s="53"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="108"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="201"/>
+      <c r="J62" s="198"/>
+      <c r="K62" s="90"/>
     </row>
     <row r="63" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A63" s="2"/>
@@ -4124,14 +4154,14 @@
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="103" t="s">
+      <c r="F63" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
+      <c r="K63" s="195"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
     </row>
@@ -4141,14 +4171,14 @@
       <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="101" t="s">
+      <c r="F64" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="102"/>
+      <c r="G64" s="193"/>
+      <c r="H64" s="193"/>
+      <c r="I64" s="193"/>
+      <c r="J64" s="193"/>
+      <c r="K64" s="193"/>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
     </row>
@@ -4173,37 +4203,71 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="F47:G48"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K24"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="F57:K58"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J61:K62"/>
+    <mergeCell ref="J59:K60"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="F32:K33"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F52:K53"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A10:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="F14:G15"/>
     <mergeCell ref="A55:B62"/>
     <mergeCell ref="A30:B39"/>
     <mergeCell ref="E45:E46"/>
@@ -4228,71 +4292,37 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="C59:D60"/>
-    <mergeCell ref="A10:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="F57:K58"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J61:K62"/>
-    <mergeCell ref="J59:K60"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="F32:K33"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F52:K53"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K24"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="A63:F64 F52 C51:D62 I54:I60 J54:K62 F54:G62 H54:H61 F54:K54 C38:E38 C49 A40:B62 D40:D46 C40:C47 F39:K39 H37:I37 F36:G51 H38:K51 A29:B37 C27:E27 H29:I33 C29:E36 F28:K28 J27:K35 F20:G33 H20:K28 C16:G17 A8:B27 A5:F6 A7:C7 E7 E9 C10:K11 C21:K22 F7:K19 C12:E25 C30:K31 E23:E28 E32:E62">
     <cfRule type="containsText" dxfId="1" priority="243" operator="containsText" text="кз2">
@@ -4313,7 +4343,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4334,13 +4364,13 @@
         <v>64</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4356,7 +4386,7 @@
       <c r="D2" s="77">
         <v>1</v>
       </c>
-      <c r="E2" s="217"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
@@ -4366,12 +4396,12 @@
         <v>66</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D3" s="77">
         <v>1</v>
       </c>
-      <c r="E3" s="217"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
@@ -4381,12 +4411,12 @@
         <v>66</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="217"/>
+        <v>71</v>
+      </c>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
@@ -4396,12 +4426,12 @@
         <v>66</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="218"/>
+        <v>71</v>
+      </c>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
@@ -4411,37 +4441,75 @@
         <v>66</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="218"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="80"/>
       <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="79"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="79"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="80"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="77"/>
